--- a/1 Stim/Mediated Stim.xlsx
+++ b/1 Stim/Mediated Stim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\OneDrive\Documents\GitHub\Mediated-Reactivity\1 Stim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ECF597-5918-475C-828D-DD18FA9CAB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B031C-7C58-43C9-A2BE-875C210C25D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{4E90AFB4-3589-4698-9593-B034AD7F1DE8}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{4E90AFB4-3589-4698-9593-B034AD7F1DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="204">
   <si>
     <t>Cue</t>
   </si>
@@ -624,6 +624,30 @@
   </si>
   <si>
     <t>LIST B</t>
+  </si>
+  <si>
+    <t>Overall M</t>
+  </si>
+  <si>
+    <t>Overall SD</t>
+  </si>
+  <si>
+    <t>Overall Min.</t>
+  </si>
+  <si>
+    <t>Overall Max.</t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1015,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -999,11 +1023,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62822242-3420-4550-A069-F6E0B72359D0}">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3942,7 +3966,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="4:23">
+    <row r="49" spans="3:23">
       <c r="F49" s="1" t="s">
         <v>33</v>
       </c>
@@ -3981,33 +4005,33 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="4:23">
+    <row r="50" spans="3:23">
       <c r="E50" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50:K50" si="4">AVERAGE(F2:F15)</f>
-        <v>5.4278571428571434</v>
+        <f>AVERAGE(F2:F16)</f>
+        <v>5.3466666666666667</v>
       </c>
       <c r="G50">
-        <f t="shared" si="4"/>
-        <v>3.4106142857142858</v>
+        <f t="shared" ref="G50:K50" si="4">AVERAGE(G2:G16)</f>
+        <v>3.4632400000000003</v>
       </c>
       <c r="H50">
         <f t="shared" si="4"/>
-        <v>4.8571428571428568</v>
+        <v>4.8</v>
       </c>
       <c r="I50">
         <f t="shared" si="4"/>
-        <v>5.3578571428571431</v>
+        <v>5.4193333333333333</v>
       </c>
       <c r="J50">
         <f t="shared" si="4"/>
-        <v>3.2105571428571431</v>
+        <v>3.1938533333333337</v>
       </c>
       <c r="K50">
         <f t="shared" si="4"/>
-        <v>4.9285714285714288</v>
+        <v>5</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>29</v>
@@ -4037,7 +4061,7 @@
         <v>5.0666666666666664</v>
       </c>
     </row>
-    <row r="51" spans="4:23">
+    <row r="51" spans="3:23">
       <c r="E51" s="1" t="s">
         <v>30</v>
       </c>
@@ -4093,7 +4117,7 @@
         <v>4.7333333333333334</v>
       </c>
     </row>
-    <row r="52" spans="4:23">
+    <row r="52" spans="3:23">
       <c r="E52" s="1" t="s">
         <v>31</v>
       </c>
@@ -4149,7 +4173,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="53" spans="4:23">
+    <row r="53" spans="3:23">
       <c r="E53" s="1" t="s">
         <v>2</v>
       </c>
@@ -4157,7 +4181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="4:23">
+    <row r="54" spans="3:23">
       <c r="D54" s="1" t="s">
         <v>72</v>
       </c>
@@ -4221,7 +4245,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="4:23">
+    <row r="55" spans="3:23">
+      <c r="D55" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55">
+        <f>STDEV(E17:E31)</f>
+        <v>0.23395538850285935</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -4229,15 +4260,490 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-    </row>
-    <row r="56" spans="4:23">
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="4:23">
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="4:23">
+      <c r="P55" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q55">
+        <f>STDEV(Q17:Q31)</f>
+        <v>0.21087798322613904</v>
+      </c>
+    </row>
+    <row r="56" spans="3:23">
+      <c r="D56" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56">
+        <f>MIN(E17:E31)</f>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="P56" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q56">
+        <f>MIN(Q17:Q31)</f>
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="3:23">
+      <c r="D57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57">
+        <f>MAX(E17:E31)</f>
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="P57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q57">
+        <f>MAX(Q17:Q31)</f>
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23">
       <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="3:23">
+      <c r="C59" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="3:23">
+      <c r="E60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23">
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61">
+        <f>AVERAGE(F2:F16, R2:R16)</f>
+        <v>5.3829629629629627</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61:J61" si="12">AVERAGE(G2:G16, S2:S16)</f>
+        <v>3.3506233333333331</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="12"/>
+        <v>4.9666666666666668</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="12"/>
+        <v>5.5210000000000008</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="12"/>
+        <v>3.129866666666667</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="12"/>
+        <v>5.0333333333333332</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23">
+      <c r="D62" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62">
+        <f>AVERAGE(F17:F31, R17:R31)</f>
+        <v>5.2371428571428567</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62:J62" si="13">AVERAGE(G17:G31, S17:S31)</f>
+        <v>2.5094749999999997</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="13"/>
+        <v>5.2</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="13"/>
+        <v>5.4443333333333337</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="13"/>
+        <v>3.5337699999999987</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="13"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23">
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63">
+        <f>AVERAGE(F32:F46, R32:R46)</f>
+        <v>4.9675000000000002</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="F63:J63" si="14">AVERAGE(G32:G46, S32:S46)</f>
+        <v>3.2168700000000001</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="14"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="14"/>
+        <v>5.1570370370370373</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="14"/>
+        <v>3.0500899999999995</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="14"/>
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10">
+      <c r="D65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10">
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66">
+        <f>STDEV(F2:F16, R2:R16)</f>
+        <v>0.86874274679790087</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66:J66" si="15">STDEV(G2:G16, S2:S16)</f>
+        <v>0.53962794570111661</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="15"/>
+        <v>1.2994251602637368</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="15"/>
+        <v>0.95069974229511511</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="15"/>
+        <v>0.58179133499155766</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="15"/>
+        <v>1.0980651740387648</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10">
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67">
+        <f>STDEV(F17:F31, R17:R32)</f>
+        <v>0.92752568487556886</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:J67" si="16">STDEV(G17:G31, S17:S32)</f>
+        <v>0.58761449904061769</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="16"/>
+        <v>1.4398327262463144</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="16"/>
+        <v>0.88020641518528808</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="16"/>
+        <v>0.63361037235591156</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="16"/>
+        <v>1.2843139669066121</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10">
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68">
+        <f>STDEV(F32:F46, R32:R46)</f>
+        <v>1.2371341584185291</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:J68" si="17">STDEV(G32:G46, S32:S46)</f>
+        <v>0.82213556233876051</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="17"/>
+        <v>1.5613875350094095</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="17"/>
+        <v>0.99900648652246282</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="17"/>
+        <v>0.77876455312687454</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="17"/>
+        <v>1.5774998406105896</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10">
+      <c r="D70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="4:10">
+      <c r="E71">
+        <f>MIN(F2:F16, R2:R16)</f>
+        <v>3.36</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ref="F71:J71" si="18">MIN(G2:G16, S2:S16)</f>
+        <v>2.36</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="18"/>
+        <v>2.93</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="18"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="4:10">
+      <c r="E72">
+        <f>MIN(F17:F31,R17:R31)</f>
+        <v>3.08</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72:J72" si="19">MIN(G17:G31,S17:S31)</f>
+        <v>1.6628000000000001</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="19"/>
+        <v>3.51</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="19"/>
+        <v>2.4378000000000002</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10">
+      <c r="E73">
+        <f>MIN(F32:F46,R32:R46)</f>
+        <v>2.54</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ref="F73:J73" si="20">MIN(G32:G46,S32:S46)</f>
+        <v>1.2787999999999999</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="20"/>
+        <v>1.6901999999999999</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="4:10">
+      <c r="D75" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="4:10">
+      <c r="E76">
+        <f>MAX(F2:F16, R2:R16)</f>
+        <v>6.66</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ref="F76:J76" si="21">MAX(G2:G16, S2:S16)</f>
+        <v>4.6116999999999999</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="21"/>
+        <v>6.94</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="21"/>
+        <v>4.5571999999999999</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="4:10">
+      <c r="E77">
+        <f>MAX(F17:F31,R17:R31)</f>
+        <v>6.53</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ref="F77:J77" si="22">MAX(G17:G31,S17:S31)</f>
+        <v>4.0796999999999999</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="22"/>
+        <v>6.67</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="22"/>
+        <v>4.7548000000000004</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="4:10">
+      <c r="E78">
+        <f>MAX(F32:F46,R32:R46)</f>
+        <v>6.93</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ref="F78:J78" si="23">MAX(G32:G46,S32:S46)</f>
+        <v>4.7750000000000004</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="23"/>
+        <v>6.57</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="23"/>
+        <v>4.3916000000000004</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
